--- a/src/main/java/br/com/rsinet/hub_tdd/UtilExcel/Cadastro.xlsx
+++ b/src/main/java/br/com/rsinet/hub_tdd/UtilExcel/Cadastro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gehaime.silva\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gehaime.silva\Documents\projeto\WorkSpace\AdvantageTest\src\main\java\br\com\rsinet\hub_tdd\UtilExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A86A4D-B472-4392-8038-B547CD3D30BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59150F00-145E-457D-8F78-A136D636B2DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2EC8C595-F690-4BCD-8654-8D49096B86F1}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{2EC8C595-F690-4BCD-8654-8D49096B86F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -96,10 +96,10 @@
     <t>Denmark</t>
   </si>
   <si>
-    <t>Geheaime123</t>
-  </si>
-  <si>
     <t>(11) 943257234</t>
+  </si>
+  <si>
+    <t>Gehaime7747</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:BR18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -878,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="1"/>
     </row>
